--- a/P&E/Xtras/Ejemplo de PRIMER PARCIAL.xlsx
+++ b/P&E/Xtras/Ejemplo de PRIMER PARCIAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\Xtras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBBCBFF-4400-466B-8D5D-04A5F6D809CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB95FCD-CE0B-4394-8AD9-C334AAA48F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="09" sheetId="9" r:id="rId9"/>
     <sheet name="10" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="media">'01'!$D$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Total</t>
   </si>
@@ -99,6 +102,12 @@
   </si>
   <si>
     <t>&lt; ¿se hace sobre la frecuencia?</t>
+  </si>
+  <si>
+    <t>| x - media |</t>
+  </si>
+  <si>
+    <t>|x-media|*f</t>
   </si>
 </sst>
 </file>
@@ -134,13 +143,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -161,15 +177,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A85CB81-A941-40A9-8498-F6B5772D4CB9}" name="Tabla1" displayName="Tabla1" ref="A1:D12" totalsRowCount="1">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A85CB81-A941-40A9-8498-F6B5772D4CB9}" name="Tabla1" displayName="Tabla1" ref="A1:F12" totalsRowCount="1">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DC75D021-E8D7-4E34-B993-C9C302AEC90B}" name="x" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{859C5C67-15CC-41FC-A750-1DB8B5DEEB14}" name="f" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{3710CB11-B329-42CA-8231-43B42A4E324A}" name="Faa" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{3710CB11-B329-42CA-8231-43B42A4E324A}" name="Faa" dataDxfId="3">
       <calculatedColumnFormula>SUM(INDEX(Tabla1[f],1):Tabla1[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4DEC4680-F1B6-4C5B-A15D-B7A02774E1CB}" name="xf" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{4DEC4680-F1B6-4C5B-A15D-B7A02774E1CB}" name="xf" totalsRowFunction="sum" dataDxfId="2">
       <calculatedColumnFormula>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{221A9791-5819-401F-ACCD-1E3BC7D25D83}" name="| x - media |" dataDxfId="1">
+      <calculatedColumnFormula>ABS(Tabla1[[#This Row],[x]]-media)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{582E34BB-30C1-4E38-997F-D593DE20341D}" name="|x-media|*f" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -439,15 +461,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -460,8 +486,14 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -476,8 +508,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F2" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>13.169999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -492,8 +532,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>13.559999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -508,8 +556,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>2.3899999999999997</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>2.3899999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -524,8 +580,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>1.3899999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>5.5599999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -540,8 +604,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>0.38999999999999968</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>1.169999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -556,8 +628,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>0.61000000000000032</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>1.830000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -572,8 +652,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>1.6100000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>9.6600000000000019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -588,8 +676,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>2.6100000000000003</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>7.830000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -604,8 +700,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>3.6100000000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>7.2200000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -620,8 +724,16 @@
         <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>ABS(Tabla1[[#This Row],[x]]-media)</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F11" s="1">
+        <f>Tabla1[[#This Row],[| x - media |]]*Tabla1[[#This Row],[f]]</f>
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -633,47 +745,51 @@
         <f>SUBTOTAL(109,Tabla1[xf])</f>
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>SUBTOTAL(109,Tabla1[|x-media|*f])</f>
+        <v>71.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="D14">
-        <f>Tabla1[[#Totals],[xf]]/Tabla1[[#Totals],[f]]</f>
-        <v>5.387096774193548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>ROUND(Tabla1[[#Totals],[xf]]/Tabla1[[#Totals],[f]],2)</f>
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
-      <c r="F15">
+      <c r="E15">
         <f>MAX(Tabla1[f])</f>
         <v>6</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="E16">
         <f>Tabla1[[#Totals],[f]]/2</f>
         <v>15.5</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -681,36 +797,40 @@
         <f>MAX(Tabla1[f])-MIN(Tabla1[f])</f>
         <v>5</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>Tabla1[[#Totals],[|x-media|*f]]/Tabla1[[#Totals],[f]]</f>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>

--- a/P&E/Xtras/Ejemplo de PRIMER PARCIAL.xlsx
+++ b/P&E/Xtras/Ejemplo de PRIMER PARCIAL.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\Xtras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C639301C-BF4D-4B00-AB49-902E07D0513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F27BD4-FE66-4644-928B-81B6BA3F7EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
     <sheet name="02" sheetId="12" r:id="rId2"/>
+    <sheet name="03" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="punto1_media">'01'!$O$1</definedName>
     <definedName name="punto2_media" localSheetId="1">'02'!$O$1</definedName>
+    <definedName name="punto3_media" localSheetId="2">'03'!$O$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="40">
   <si>
     <t>Total</t>
   </si>
@@ -172,6 +174,15 @@
   </si>
   <si>
     <t>la moda es el dato [f] que se repite más.</t>
+  </si>
+  <si>
+    <t>posiciónP20</t>
+  </si>
+  <si>
+    <t>posiciónP48</t>
+  </si>
+  <si>
+    <t>posiciónP70</t>
   </si>
 </sst>
 </file>
@@ -281,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,32 +323,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -346,15 +339,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -374,7 +379,103 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Victor Mono"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -505,26 +606,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A85CB81-A941-40A9-8498-F6B5772D4CB9}" name="punto1_tabla" displayName="punto1_tabla" ref="A1:H12" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A85CB81-A941-40A9-8498-F6B5772D4CB9}" name="punto1_tabla" displayName="punto1_tabla" ref="A1:H12" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DC75D021-E8D7-4E34-B993-C9C302AEC90B}" name="x" totalsRowLabel="Total" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{859C5C67-15CC-41FC-A750-1DB8B5DEEB14}" name="f" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{4DEC4680-F1B6-4C5B-A15D-B7A02774E1CB}" name="xf" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="1" xr3:uid="{DC75D021-E8D7-4E34-B993-C9C302AEC90B}" name="x" totalsRowLabel="Total" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{859C5C67-15CC-41FC-A750-1DB8B5DEEB14}" name="f" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{4DEC4680-F1B6-4C5B-A15D-B7A02774E1CB}" name="xf" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>punto1_tabla[[#This Row],[x]]*punto1_tabla[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3710CB11-B329-42CA-8231-43B42A4E324A}" name="Faa" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="3" xr3:uid="{3710CB11-B329-42CA-8231-43B42A4E324A}" name="Faa" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>SUM(INDEX(punto1_tabla[f],1):punto1_tabla[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{221A9791-5819-401F-ACCD-1E3BC7D25D83}" name="|x-media|" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="5" xr3:uid="{221A9791-5819-401F-ACCD-1E3BC7D25D83}" name="|x-media|" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>ABS(punto1_tabla[[#This Row],[x]]-punto1_media)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{582E34BB-30C1-4E38-997F-D593DE20341D}" name="|x-media|f" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="6" xr3:uid="{582E34BB-30C1-4E38-997F-D593DE20341D}" name="|x-media|f" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>punto1_tabla[[#This Row],[|x-media|]]*punto1_tabla[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9212D3D-6F59-4375-9FB2-3BD900D5A0C0}" name="(x-media)^2" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="7" xr3:uid="{B9212D3D-6F59-4375-9FB2-3BD900D5A0C0}" name="(x-media)^2" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>(punto1_tabla[[#This Row],[x]]-punto1_media)^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1A98847D-0747-4C9D-9AAB-00E7276AF06A}" name="[(x-media)^2]f" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="8" xr3:uid="{1A98847D-0747-4C9D-9AAB-00E7276AF06A}" name="[(x-media)^2]f" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>punto1_tabla[[#This Row],[(x-media)^2]]*punto1_tabla[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -533,27 +634,55 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{943CB312-71B5-49E8-8026-8A785EA86055}" name="punto2_tabla" displayName="punto2_tabla" ref="A1:H10" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{943CB312-71B5-49E8-8026-8A785EA86055}" name="punto2_tabla" displayName="punto2_tabla" ref="A1:H10" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DD46E6B1-0159-4425-93B2-FCB94351A6AB}" name="x" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{AC9AFF2E-F689-4484-8847-43C58789CAF9}" name="f" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2787EC8A-A583-42A9-AA8C-42815C56B166}" name="xf" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{DD46E6B1-0159-4425-93B2-FCB94351A6AB}" name="x" totalsRowLabel="Total" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{AC9AFF2E-F689-4484-8847-43C58789CAF9}" name="f" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{2787EC8A-A583-42A9-AA8C-42815C56B166}" name="xf" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>punto2_tabla[[#This Row],[x]]*punto2_tabla[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3CC2B4FE-0BC8-448F-A250-E6FC0C58EA9D}" name="Faa" dataDxfId="12" totalsRowDxfId="4">
+    <tableColumn id="3" xr3:uid="{3CC2B4FE-0BC8-448F-A250-E6FC0C58EA9D}" name="Faa" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>SUM(INDEX(punto2_tabla[f],1):punto2_tabla[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FEAE2E91-AA0D-4376-9CAD-CBC53B034932}" name="|x-media|" dataDxfId="11" totalsRowDxfId="3">
+    <tableColumn id="5" xr3:uid="{FEAE2E91-AA0D-4376-9CAD-CBC53B034932}" name="|x-media|" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>ABS(punto2_tabla[[#This Row],[x]]-punto2_media)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F20E478E-7136-454B-AC47-A4426B4E84EF}" name="|x-media|f" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="2">
+    <tableColumn id="6" xr3:uid="{F20E478E-7136-454B-AC47-A4426B4E84EF}" name="|x-media|f" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>punto2_tabla[[#This Row],[|x-media|]]*punto2_tabla[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{74C4E94D-F420-4AF6-B09D-B866FB2398B1}" name="(x-media)^2" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="7" xr3:uid="{74C4E94D-F420-4AF6-B09D-B866FB2398B1}" name="(x-media)^2" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>(punto2_tabla[[#This Row],[x]]-punto2_media)^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AC21174F-9390-4580-96C2-3A03AC589142}" name="[(x-media)^2]f" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0">
+    <tableColumn id="8" xr3:uid="{AC21174F-9390-4580-96C2-3A03AC589142}" name="[(x-media)^2]f" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>punto2_tabla[[#This Row],[(x-media)^2]]*punto2_tabla[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FB9C0403-5AA4-43C3-BF51-7F306E9A67F9}" name="punto3_tabla" displayName="punto3_tabla" ref="A1:H7" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{415DB2B7-5D6D-4082-BFD7-8FABA7A28B79}" name="x" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A9398F3B-97C9-48EC-B610-42B1F1E14C2D}" name="f" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{CF0263CD-76B4-47F2-9366-1136FD56B8B1}" name="xf" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
+      <calculatedColumnFormula>punto3_tabla[[#This Row],[x]]*punto3_tabla[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8D043E76-19A1-4EA0-8C3B-0E10D9F79730}" name="Faa" dataDxfId="9" totalsRowDxfId="8">
+      <calculatedColumnFormula>SUM(INDEX(punto3_tabla[f],1):punto3_tabla[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D6F2EBA7-D9DA-4379-A1D7-40BCE50ED001}" name="|x-media|" dataDxfId="7" totalsRowDxfId="6">
+      <calculatedColumnFormula>ABS(punto3_tabla[[#This Row],[x]]-punto3_media)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{802FC73A-054D-4606-B65F-AA06A4BF4B28}" name="|x-media|f" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>punto3_tabla[[#This Row],[|x-media|]]*punto3_tabla[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{47135086-9671-4C86-AF49-8BD48FE519AB}" name="(x-media)^2" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>(punto3_tabla[[#This Row],[x]]-punto3_media)^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{EF5E35FB-D70C-4541-88A4-2674B67CAC43}" name="[(x-media)^2]f" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>punto3_tabla[[#This Row],[(x-media)^2]]*punto3_tabla[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -826,7 +955,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1475,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D835541E-0587-4507-9BDD-425B2C3390E7}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1489,7 +1618,7 @@
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1747,8 +1876,8 @@
         <v>24</v>
       </c>
       <c r="O6" s="11">
-        <f>punto2_tabla[[#Totals],[|x-media|f]]/punto2_tabla[[#Totals],[f]]</f>
-        <v>1.3087500000000003</v>
+        <f>ROUND(punto2_tabla[[#Totals],[|x-media|f]]/punto2_tabla[[#Totals],[f]],2)</f>
+        <v>1.31</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75">
@@ -2061,6 +2190,499 @@
       </c>
       <c r="C18" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1D8CF9-E082-4830-BC07-9185D78F4E66}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="11">
+        <f>ROUND(punto3_tabla[[#Totals],[xf]]/punto3_tabla[[#Totals],[f]],2)</f>
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <f>punto3_tabla[[#This Row],[x]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <f>SUM(INDEX(punto3_tabla[f],1):punto3_tabla[[#This Row],[f]])</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <f>ABS(punto3_tabla[[#This Row],[x]]-punto3_media)</f>
+        <v>2.14</v>
+      </c>
+      <c r="F2" s="6">
+        <f>punto3_tabla[[#This Row],[|x-media|]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>4.28</v>
+      </c>
+      <c r="G2" s="6">
+        <f>(punto3_tabla[[#This Row],[x]]-punto3_media)^2</f>
+        <v>4.5796000000000001</v>
+      </c>
+      <c r="H2" s="6">
+        <f>punto3_tabla[[#This Row],[(x-media)^2]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>9.1592000000000002</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <f>MAX(punto3_tabla[f])</f>
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <f>punto3_tabla[[#This Row],[x]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <f>SUM(INDEX(punto3_tabla[f],1):punto3_tabla[[#This Row],[f]])</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <f>ABS(punto3_tabla[[#This Row],[x]]-punto3_media)</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="F3" s="6">
+        <f>punto3_tabla[[#This Row],[|x-media|]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>6.8400000000000007</v>
+      </c>
+      <c r="G3" s="6">
+        <f>(punto3_tabla[[#This Row],[x]]-punto3_media)^2</f>
+        <v>1.2996000000000003</v>
+      </c>
+      <c r="H3" s="6">
+        <f>punto3_tabla[[#This Row],[(x-media)^2]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>7.7976000000000019</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <f>punto3_tabla[[#Totals],[f]]/2</f>
+        <v>11</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <f>punto3_tabla[[#This Row],[x]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <f>SUM(INDEX(punto3_tabla[f],1):punto3_tabla[[#This Row],[f]])</f>
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <f>ABS(punto3_tabla[[#This Row],[x]]-punto3_media)</f>
+        <v>0.14000000000000012</v>
+      </c>
+      <c r="F4" s="6">
+        <f>punto3_tabla[[#This Row],[|x-media|]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>0.70000000000000062</v>
+      </c>
+      <c r="G4" s="6">
+        <f>(punto3_tabla[[#This Row],[x]]-punto3_media)^2</f>
+        <v>1.9600000000000034E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <f>punto3_tabla[[#This Row],[(x-media)^2]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>9.800000000000017E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="11">
+        <f>MAX(punto3_tabla[x])-MIN(punto3_tabla[x])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <f>punto3_tabla[[#This Row],[x]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <f>SUM(INDEX(punto3_tabla[f],1):punto3_tabla[[#This Row],[f]])</f>
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
+        <f>ABS(punto3_tabla[[#This Row],[x]]-punto3_media)</f>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="F5" s="6">
+        <f>punto3_tabla[[#This Row],[|x-media|]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="G5" s="6">
+        <f>(punto3_tabla[[#This Row],[x]]-punto3_media)^2</f>
+        <v>0.73959999999999981</v>
+      </c>
+      <c r="H5" s="6">
+        <f>punto3_tabla[[#This Row],[(x-media)^2]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>3.6979999999999991</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="11">
+        <f>ROUND(punto3_tabla[[#Totals],[|x-media|f]]/punto3_tabla[[#Totals],[f]],2)</f>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <f>punto3_tabla[[#This Row],[x]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
+        <f>SUM(INDEX(punto3_tabla[f],1):punto3_tabla[[#This Row],[f]])</f>
+        <v>22</v>
+      </c>
+      <c r="E6" s="4">
+        <f>ABS(punto3_tabla[[#This Row],[x]]-punto3_media)</f>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <f>punto3_tabla[[#This Row],[|x-media|]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="G6" s="6">
+        <f>(punto3_tabla[[#This Row],[x]]-punto3_media)^2</f>
+        <v>3.4595999999999996</v>
+      </c>
+      <c r="H6" s="6">
+        <f>punto3_tabla[[#This Row],[(x-media)^2]]*punto3_tabla[[#This Row],[f]]</f>
+        <v>13.838399999999998</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="11">
+        <f>ROUND(punto3_tabla[[#Totals],['[(x-media)^2']f]]/punto3_tabla[[#Totals],[f]],2)</f>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUBTOTAL(109,punto3_tabla[f])</f>
+        <v>22</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUBTOTAL(109,punto3_tabla[xf])</f>
+        <v>69</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <f>SUBTOTAL(109,punto3_tabla[|x-media|f])</f>
+        <v>23.560000000000002</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <f>SUBTOTAL(109,punto3_tabla['[(x-media)^2']f])</f>
+        <v>34.591200000000001</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="11">
+        <f>ROUND(SQRT(O6),2)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75">
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="11">
+        <f>ROUND(O7/punto3_media,2)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75">
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75">
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <f>(1*punto3_tabla[[#Totals],[f]])/4</f>
+        <v>5.5</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="str">
+        <f>RIGHT(K10,2)</f>
+        <v>Q1</v>
+      </c>
+      <c r="O10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75">
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <f>(2*punto3_tabla[[#Totals],[f]])/4</f>
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="str">
+        <f>RIGHT(K11,2)</f>
+        <v>Q2</v>
+      </c>
+      <c r="O11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75">
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f>(3*punto3_tabla[[#Totals],[f]])/4</f>
+        <v>16.5</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="str">
+        <f>RIGHT(K12,2)</f>
+        <v>Q3</v>
+      </c>
+      <c r="O12" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14">
+        <f>(20*punto3_tabla[[#Totals],[f]])/100</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" t="str">
+        <f>RIGHT(K14,3)</f>
+        <v>P20</v>
+      </c>
+      <c r="O14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75">
+      <c r="A15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <f>(48*punto3_tabla[[#Totals],[f]])/100</f>
+        <v>10.56</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" ref="N15:N16" si="0">RIGHT(K15,3)</f>
+        <v>P48</v>
+      </c>
+      <c r="O15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75">
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16">
+        <f>(70*punto3_tabla[[#Totals],[f]])/100</f>
+        <v>15.4</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>P70</v>
+      </c>
+      <c r="O16" s="11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
